--- a/docs/2cronograma.xlsx
+++ b/docs/2cronograma.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="7995" tabRatio="770"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="7995" tabRatio="770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
     <sheet name="Apontamento de Horas" sheetId="2" r:id="rId2"/>
     <sheet name="Listas" sheetId="4" r:id="rId3"/>
+    <sheet name="Custos" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Apontamento de Horas'!$A$2:$H$97</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>Atividade</t>
   </si>
@@ -291,12 +292,31 @@
   <si>
     <t>Total Horas</t>
   </si>
+  <si>
+    <t>Valor Hora</t>
+  </si>
+  <si>
+    <t>Horas Estimadas</t>
+  </si>
+  <si>
+    <t>Custo Estimado</t>
+  </si>
+  <si>
+    <t>Horas Realizadas</t>
+  </si>
+  <si>
+    <t>Custo Real</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -508,11 +528,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -717,6 +738,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,11 +763,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -745,6 +777,779 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400"/>
+              <a:t>Horas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" baseline="0"/>
+              <a:t> Estimadas x Realizadas por Recurso</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15626377952755904"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Custos!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Estimadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Custos!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ederson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rodrigo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giorgio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jullian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gerente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Custos!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Custos!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Horas Realizadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Custos!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ederson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rodrigo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giorgio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jullian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gerente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Custos!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="44544512"/>
+        <c:axId val="50661056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44544512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50661056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50661056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Horas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44544512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Custo Estimado x Custo Real por Recurso</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Custos!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custo Estimado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Custos!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ederson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rodrigo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giorgio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jullian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gerente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Custos!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Custos!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Custo Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Custos!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Ederson</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rodrigo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Giorgio</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jullian</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Gerente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Custos!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>399.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.49999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>537.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="44546048"/>
+        <c:axId val="50663360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44546048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50663360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50663360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44546048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="129"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="29"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Custo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> Total Estimado x Real</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1"/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Custos!$D$1,Custos!$F$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Custo Estimado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Custo Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Custos!$D$7,Custos!$F$7)</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1470</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="44546560"/>
+        <c:axId val="50665664"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="44546560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50665664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50665664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44546560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -791,6 +1596,107 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168494</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319579</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186229</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>210208</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>624051</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>26275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471821</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>384997</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95936</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1088,9 +1994,9 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13:O19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,32 +2019,32 @@
       </c>
       <c r="B1" s="11"/>
       <c r="E1" s="11"/>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="79"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="86"/>
       <c r="AD1" s="10" t="s">
         <v>73</v>
       </c>
@@ -2691,7 +3597,7 @@
       </c>
       <c r="E35" s="57">
         <f>SUMIF('Apontamento de Horas'!$G$3:$G$97,Cronograma!$B35,'Apontamento de Horas'!$F$3:$F$97)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>60</v>
@@ -2903,7 +3809,9 @@
       <c r="C40" s="71">
         <v>30</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="45">
+        <v>0.5</v>
+      </c>
       <c r="E40" s="57">
         <f>SUMIF('Apontamento de Horas'!$G$3:$G$97,Cronograma!$B40,'Apontamento de Horas'!$F$3:$F$97)</f>
         <v>5.9999999999999964</v>
@@ -2943,57 +3851,57 @@
       </c>
       <c r="E41" s="39">
         <f>SUM(E4:E40)</f>
-        <v>56.999999999999986</v>
+        <v>58.999999999999986</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G42" s="76" t="s">
+      <c r="G42" s="83" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="38"/>
-      <c r="I42" s="77" t="s">
+      <c r="I42" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="77"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="84"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="G43" s="76"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="77" t="s">
+      <c r="I43" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="76"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="66"/>
-      <c r="I44" s="77" t="s">
+      <c r="I44" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-      <c r="P44" s="77"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="AF45" s="75"/>
@@ -3017,9 +3925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,9 +3948,9 @@
       <c r="E1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="80">
+      <c r="F1" s="76">
         <f>SUM(F3:F97)</f>
-        <v>56.999999999999993</v>
+        <v>58.999999999999993</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,31 +4933,31 @@
         <v>11</v>
       </c>
       <c r="B38" s="26">
-        <v>42336</v>
+        <v>42335</v>
       </c>
       <c r="C38" s="29">
-        <v>0.41666666666666669</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D38" s="29">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="E38" s="29">
         <f>IF(D38&lt;&gt;"",D38-C38,0)</f>
-        <v>2.0833333333333315E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F38" s="34">
         <f>E38*24</f>
-        <v>0.49999999999999956</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="G38" s="28" t="str">
-        <f>Cronograma!B38</f>
-        <v>5.1 Apresentação Sprint 1</v>
+        <f>Cronograma!B35</f>
+        <v>4.1 Casos de Teste Primeira Sprint</v>
       </c>
       <c r="H38" s="28"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B39" s="26">
         <v>42336</v>
@@ -4076,7 +4984,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" s="26">
         <v>42336</v>
@@ -4103,45 +5011,56 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" s="26">
         <v>42336</v>
       </c>
       <c r="C41" s="29">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D41" s="29">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E41" s="29">
         <f>IF(D41&lt;&gt;"",D41-C41,0)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="F41" s="34">
         <f>E41*24</f>
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="G41" s="28" t="str">
+        <f>Cronograma!B38</f>
+        <v>5.1 Apresentação Sprint 1</v>
+      </c>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="26">
+        <v>42336</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="D42" s="29">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E42" s="29">
+        <f>IF(D42&lt;&gt;"",D42-C42,0)</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="F42" s="34">
+        <f>E42*24</f>
         <v>1.9999999999999996</v>
       </c>
-      <c r="G41" s="28" t="str">
+      <c r="G42" s="28" t="str">
         <f>Cronograma!$B$40</f>
         <v>Atividades de Gerência de Projetos</v>
       </c>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29">
-        <f>IF(D42&lt;&gt;"",D42-C42,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="34">
-        <f>E42*24</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="28"/>
       <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5045,7 +5964,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5091,11 +6010,190 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <f>COUNTA('Apontamento de Horas'!A3:A97)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="82" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="78">
+        <v>25</v>
+      </c>
+      <c r="C2" s="34">
+        <v>25</v>
+      </c>
+      <c r="D2" s="79">
+        <f>B2*C2</f>
+        <v>625</v>
+      </c>
+      <c r="E2" s="34">
+        <f>SUMIF('Apontamento de Horas'!$A$3:$A$97,Custos!$A2,'Apontamento de Horas'!$F$3:$F$97)</f>
+        <v>15.999999999999995</v>
+      </c>
+      <c r="F2" s="79">
+        <f>B2*E2</f>
+        <v>399.99999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="78">
+        <v>15</v>
+      </c>
+      <c r="C3" s="34">
+        <v>26</v>
+      </c>
+      <c r="D3" s="79">
+        <f t="shared" ref="D3:D6" si="0">B3*C3</f>
+        <v>390</v>
+      </c>
+      <c r="E3" s="34">
+        <f>SUMIF('Apontamento de Horas'!$A$3:$A$97,Custos!$A3,'Apontamento de Horas'!$F$3:$F$97)</f>
+        <v>12.000000000000004</v>
+      </c>
+      <c r="F3" s="79">
+        <f t="shared" ref="F3:F6" si="1">B3*E3</f>
+        <v>180.00000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="78">
+        <v>15</v>
+      </c>
+      <c r="C4" s="34">
+        <v>25</v>
+      </c>
+      <c r="D4" s="79">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="E4" s="34">
+        <f>SUMIF('Apontamento de Horas'!$A$3:$A$97,Custos!$A4,'Apontamento de Horas'!$F$3:$F$97)</f>
+        <v>9.4999999999999982</v>
+      </c>
+      <c r="F4" s="79">
+        <f t="shared" si="1"/>
+        <v>142.49999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="78">
+        <v>25</v>
+      </c>
+      <c r="C5" s="34">
+        <v>25</v>
+      </c>
+      <c r="D5" s="79">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="E5" s="34">
+        <f>SUMIF('Apontamento de Horas'!$A$3:$A$97,Custos!$A5,'Apontamento de Horas'!$F$3:$F$97)</f>
+        <v>21.5</v>
+      </c>
+      <c r="F5" s="79">
+        <f t="shared" si="1"/>
+        <v>537.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="78">
+        <v>35</v>
+      </c>
+      <c r="C6" s="34">
+        <v>30</v>
+      </c>
+      <c r="D6" s="79">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E6" s="34">
+        <v>6</v>
+      </c>
+      <c r="F6" s="79">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="80">
+        <f>SUM(C2:C6)</f>
+        <v>131</v>
+      </c>
+      <c r="D7" s="81">
+        <f>SUM(D2:D6)</f>
+        <v>3065</v>
+      </c>
+      <c r="E7" s="80">
+        <f>SUM(E2:E6)</f>
+        <v>65</v>
+      </c>
+      <c r="F7" s="81">
+        <f>SUM(F2:F6)</f>
+        <v>1470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>